--- a/src/datos_deptos.xlsx
+++ b/src/datos_deptos.xlsx
@@ -233,18 +233,18 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -575,7 +575,7 @@
         <v>30</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>14</v>
